--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2014572.501644028</v>
+        <v>2113537.547810255</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6118235.655477272</v>
+        <v>6517777.254539249</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>49.79079256199707</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.1531638478813</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -817,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -835,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>218.775754413495</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.84463284635535</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>409.2046460174066</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -947,16 +949,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>55.85223673644467</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>144.0596678020102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,13 +1110,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>166.13410914208</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1136,19 +1138,19 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>77.91406325344757</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>238.381604373668</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>120.2281059240621</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>57.45427947714033</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>288.1579788728475</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.9733955350584</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>253.6542084583245</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>155.3203216033152</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1765,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>79.47996908723992</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1856,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>97.73220606373913</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2014,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>111.4895087206899</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>245.0743797003217</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2488,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>111.4895087206872</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>77.34040729634128</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2716,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>19.23718477902538</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -2770,10 +2772,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>15.35750671439921</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2956,13 +2958,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>191.393335164716</v>
+        <v>118.9693540944492</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>134.9361836492272</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>101.9929615813389</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3436,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>149.4756178649921</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>122.9177036806385</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W40" t="n">
-        <v>72.06168307085447</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3752,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>244.0883786636601</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>45.44275720140907</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>209.5404761196965</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4141,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>101.8032965813492</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4195,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>251.4991384968275</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>938.0105478030285</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C2" t="n">
-        <v>915.1502218567327</v>
+        <v>965.1452933471885</v>
       </c>
       <c r="D2" t="n">
-        <v>895.898005082137</v>
+        <v>541.8526725321888</v>
       </c>
       <c r="E2" t="n">
-        <v>469.9210652299946</v>
+        <v>115.8757326800463</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>94.79195490985063</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4328,52 +4330,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002562</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.716137464517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.716137464517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.716137464517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1763.226722590766</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1366.835372891113</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1359.155778099264</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.8185080541546</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>51.94486801115937</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>602.6104029955975</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.7300103455299</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>689.7300103455299</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>526.4132374723006</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="W4" t="n">
-        <v>974.6885374882575</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>974.6885374882575</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>879.8959790575955</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.988227140365</v>
+        <v>1258.989642055132</v>
       </c>
       <c r="C5" t="n">
-        <v>1354.087497153665</v>
+        <v>1236.129316108836</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386659</v>
+        <v>1216.87709933424</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>1194.940563522502</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4565,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1862.189048931929</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1805.772648188046</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1798.093053396197</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.796187391491</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4649,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1699405917395</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V7" t="n">
-        <v>1596.586012437937</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1596.586012437937</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X7" t="n">
-        <v>1354.022115883742</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.679347573484</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>487.2469754669713</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>464.3866495206755</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>385.6855755272941</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>1724.152608635864</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X8" t="n">
-        <v>1312.432609803611</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>907.0953397585014</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>874.3078922751886</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>874.3078922751886</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>623.2416088994861</v>
+        <v>1105.325610318065</v>
       </c>
       <c r="C10" t="n">
-        <v>623.2416088994861</v>
+        <v>933.3530471969812</v>
       </c>
       <c r="D10" t="n">
-        <v>459.9248360262568</v>
+        <v>770.0362743237519</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262568</v>
+        <v>603.8280684766054</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>431.9662942511658</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>265.7093245453979</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="X10" t="n">
-        <v>1039.75034592181</v>
+        <v>1521.834347340389</v>
       </c>
       <c r="Y10" t="n">
-        <v>813.4075776115517</v>
+        <v>1295.491579030131</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1484.858986948137</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1057.958256961437</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1057.958256961437</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1057.958256961437</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>780.1904584722912</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870094</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N11" t="n">
-        <v>1607.830298401974</v>
+        <v>3010.239152404026</v>
       </c>
       <c r="O11" t="n">
-        <v>2408.271910799777</v>
+        <v>3855.383802554838</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4563.663081712765</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480043</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>1896.57898578039</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>1484.858986948137</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1484.858986948137</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>272.4865562816963</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>272.4865562816963</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="N12" t="n">
-        <v>1072.928168679499</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>308.2469872483618</v>
+        <v>1083.489499143503</v>
       </c>
       <c r="C13" t="n">
-        <v>308.2469872483618</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D13" t="n">
-        <v>308.2469872483618</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E13" t="n">
-        <v>308.2469872483618</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F13" t="n">
-        <v>308.2469872483618</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1998.778504900147</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1742.562132720021</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1499.998236165826</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1273.655467855569</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1673.617690933128</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>1246.716960946428</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>823.4243401314286</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>397.4474002792861</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>397.4474002792861</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.632070870094</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1580.632070870094</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>1580.632070870094</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>2381.073683267897</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>3089.352962425824</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U14" t="n">
-        <v>2856.292740143518</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V14" t="n">
-        <v>2498.803325269768</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W14" t="n">
-        <v>2498.803325269768</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X14" t="n">
-        <v>2498.803325269768</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y14" t="n">
-        <v>2093.466055224658</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>356.7304516410011</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>356.7304516410011</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N15" t="n">
-        <v>356.7304516410011</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>180.3597419368082</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.09517790992</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>2245.09517790992</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>2081.788310425035</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1806.935906597548</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>207.5440612468791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>923.0523692223782</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1852.677416841655</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2856.963518260713</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3833.214576747414</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>888.2776948471621</v>
+        <v>1012.46210461364</v>
       </c>
       <c r="C19" t="n">
-        <v>716.3051317260781</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>552.9883588528488</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>386.7801530057023</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>214.9183787802628</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5677,10 +5679,10 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
         <v>1509.688269976534</v>
@@ -5695,28 +5697,28 @@
         <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025268</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251168</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251168</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V19" t="n">
-        <v>1822.202732251168</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.350328423681</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.786431869486</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.443663559228</v>
+        <v>1202.628073325706</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4090.576687723259</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5926,34 +5928,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.337779732033</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>1992.337779732033</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V22" t="n">
-        <v>1992.337779732033</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>3720.69762431963</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>3548.725061198546</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>3385.408288325316</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>3219.20008247817</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>3047.33830825273</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.555503974472</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="V25" t="n">
-        <v>1875.844036582501</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="W25" t="n">
-        <v>1600.991632755014</v>
+        <v>4379.770257896148</v>
       </c>
       <c r="X25" t="n">
-        <v>1358.427736200819</v>
+        <v>4137.206361341953</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>3910.863593031695</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6233,19 +6235,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1019.226866224298</v>
+        <v>1041.59856283363</v>
       </c>
       <c r="C28" t="n">
-        <v>847.2543031032136</v>
+        <v>869.6259997125455</v>
       </c>
       <c r="D28" t="n">
-        <v>683.9375302299843</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>517.7293243828378</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
         <v>345.8675501573982</v>
@@ -6418,16 +6420,16 @@
         <v>1785.357631525569</v>
       </c>
       <c r="V28" t="n">
-        <v>1503.646164133598</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W28" t="n">
-        <v>1488.13353108875</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X28" t="n">
-        <v>1245.569634534556</v>
+        <v>1267.941331143888</v>
       </c>
       <c r="Y28" t="n">
-        <v>1019.226866224298</v>
+        <v>1041.59856283363</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3536.037516838104</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C31" t="n">
-        <v>3364.06495371702</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D31" t="n">
-        <v>3200.748180843791</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E31" t="n">
-        <v>3200.748180843791</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>3200.748180843791</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>4945.000622810562</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>4751.674021634081</v>
+        <v>1919.205328302989</v>
       </c>
       <c r="V31" t="n">
-        <v>4469.96255424211</v>
+        <v>1637.493860911018</v>
       </c>
       <c r="W31" t="n">
-        <v>4195.110150414623</v>
+        <v>1362.641457083531</v>
       </c>
       <c r="X31" t="n">
-        <v>3952.546253860427</v>
+        <v>1120.077560529336</v>
       </c>
       <c r="Y31" t="n">
-        <v>3726.203485550169</v>
+        <v>893.7347922190779</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>2065.542080025265</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>2065.542080025265</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1790.689676197778</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>1548.125779643583</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>1321.783011333325</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1040.608704104281</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1970.233751723557</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2974.519853142615</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3950.770911629316</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>3313.894682672831</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>4025.820723818557</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>898.4712074343906</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>898.4712074343906</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>735.1544345611613</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>568.9462287140149</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>397.0844544885753</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1832.396244838396</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W37" t="n">
-        <v>1557.543841010909</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X37" t="n">
-        <v>1314.979944456714</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1088.637176146456</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>109.7493563677404</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>223.2920388516654</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>941.9189991784958</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>769.9464360574118</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7363,19 +7365,19 @@
         <v>2235.67712750613</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.492679006434</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V40" t="n">
-        <v>1673.781211614463</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.991632755014</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1358.427736200819</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.084967890562</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2012.530540803315</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>1585.629810816615</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1162.337190001615</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>736.3602501494728</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>311.236068338873</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>865.123762894595</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>865.123762894595</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>1269.301153779694</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>2069.742766177496</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839607</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>2837.716175139954</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>2837.716175139954</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2432.378905094845</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>336.3796397763832</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>926.8645663447228</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L42" t="n">
-        <v>990.9088585947959</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M42" t="n">
-        <v>1791.350470992599</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.350470992599</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="O42" t="n">
-        <v>1791.350470992599</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="P42" t="n">
-        <v>1791.350470992599</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1048.094704761305</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>876.122141640221</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>712.8053687669917</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>546.5971629198452</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7353886944056</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886378</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U43" t="n">
-        <v>1982.01974216531</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V43" t="n">
-        <v>1982.01974216531</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W43" t="n">
-        <v>1707.167338337823</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X43" t="n">
-        <v>1464.603441783629</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y43" t="n">
-        <v>1238.260673473371</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2012.530540803315</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C44" t="n">
-        <v>1585.629810816615</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D44" t="n">
-        <v>1162.337190001615</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E44" t="n">
-        <v>736.3602501494728</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F44" t="n">
-        <v>311.236068338873</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G44" t="n">
-        <v>99.57902175332094</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>64.68215049679215</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>468.8595413818907</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>1269.301153779694</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
-        <v>2069.742766177496</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839607</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V44" t="n">
-        <v>3234.107524839607</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W44" t="n">
-        <v>2837.716175139954</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X44" t="n">
-        <v>2837.716175139954</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y44" t="n">
-        <v>2432.378905094845</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>1697.117383538689</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>1887.501125494322</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>2687.942737892125</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>2687.942737892125</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N45" t="n">
-        <v>2687.942737892125</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>2687.942737892125</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>2687.942737892125</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>3152.088214754904</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.7400547508295</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C46" t="n">
-        <v>327.7674916297455</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D46" t="n">
-        <v>164.4507187565162</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E46" t="n">
-        <v>164.4507187565162</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F46" t="n">
-        <v>164.4507187565162</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2177.658359583685</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>1934.319011809585</v>
       </c>
       <c r="U46" t="n">
-        <v>1504.397720842433</v>
+        <v>1654.134563309889</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.686253450462</v>
+        <v>1372.423095917918</v>
       </c>
       <c r="W46" t="n">
-        <v>968.6467196152823</v>
+        <v>1372.423095917918</v>
       </c>
       <c r="X46" t="n">
-        <v>726.0828230610874</v>
+        <v>1129.859199363723</v>
       </c>
       <c r="Y46" t="n">
-        <v>499.7400547508295</v>
+        <v>1129.859199363723</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>205.7998844961774</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>259.4889279983319</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8076,7 +8078,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>300.3028744740158</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>97.8252091287798</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>268.1828480767085</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>298.7878524343791</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>453.880834648017</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>64.75257993735498</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>480.7551415103952</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>232.4185269010014</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234435</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O12" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.59763170750723</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>317.513370698279</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>135.7243512442234</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9176,16 +9178,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9413,13 +9415,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>493.0472488628404</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>97.06111056123879</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9881,10 +9883,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>924.3306556055956</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>779.697912545697</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10358,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>617.2823097660786</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>742.2139937908398</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>717.3655137896245</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10908,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>136.0326064801326</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>445.5396136274749</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>474.9037794053499</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11142,10 +11144,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>87.20629100723269</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>607.201212966307</v>
       </c>
       <c r="M44" t="n">
-        <v>445.6912536924607</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>214.7060438895281</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,10 +11396,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>132.7149611196463</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.29091348988661</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>18.44967133088764</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>100.4510387062366</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>19.29091348988686</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>72.52063142613402</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>53.1048912880203</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>27.02950008889044</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>53.104891288023</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>200.0421967183575</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>142.4464203654716</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>256.7463730748129</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24886,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>85.98926884998275</v>
+        <v>158.4132499202495</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>68.15019490184626</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.11878214371808</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>117.2205539080144</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W40" t="n">
-        <v>200.0421967183576</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>156.2072931227858</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>231.9398468132897</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>190.7551956667493</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>66.63040042470726</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>20.60474129238457</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416954.1271569643</v>
+        <v>553696.8201540584</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416954.1271569644</v>
+        <v>553696.8201540584</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>562295.7564569953</v>
+        <v>562295.7564569952</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>562295.7564569952</v>
+        <v>562295.7564569953</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>562295.7564569953</v>
+        <v>562295.7564569952</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416954.1271569643</v>
+        <v>553696.8201540584</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416954.1271569644</v>
+        <v>553696.8201540584</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451393.0677086514</v>
+      </c>
+      <c r="C2" t="n">
         <v>451393.0677086513</v>
       </c>
-      <c r="C2" t="n">
-        <v>451393.0677086515</v>
-      </c>
       <c r="D2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086513</v>
       </c>
       <c r="E2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245151</v>
       </c>
       <c r="F2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245152</v>
       </c>
       <c r="G2" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="H2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="I2" t="n">
         <v>435573.5624315215</v>
-      </c>
-      <c r="I2" t="n">
-        <v>435573.5624315217</v>
       </c>
       <c r="J2" t="n">
         <v>435573.5624315215</v>
       </c>
       <c r="K2" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="L2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="M2" t="n">
         <v>435573.5624315215</v>
@@ -26350,10 +26352,10 @@
         <v>435573.5624315215</v>
       </c>
       <c r="O2" t="n">
-        <v>322990.9468021281</v>
+        <v>428912.7678245151</v>
       </c>
       <c r="P2" t="n">
-        <v>322990.946802128</v>
+        <v>428912.7678245152</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792738</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="P4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49411.67068747178</v>
+        <v>49411.67068747192</v>
       </c>
       <c r="C6" t="n">
-        <v>235816.4041022092</v>
+        <v>235816.404102209</v>
       </c>
       <c r="D6" t="n">
-        <v>235816.4041022089</v>
+        <v>235816.4041022091</v>
       </c>
       <c r="E6" t="n">
-        <v>187313.1491834953</v>
+        <v>130538.209018151</v>
       </c>
       <c r="F6" t="n">
-        <v>262644.1003369575</v>
+        <v>337970.4966347121</v>
       </c>
       <c r="G6" t="n">
-        <v>213816.926773624</v>
+        <v>335081.704501683</v>
       </c>
       <c r="H6" t="n">
+        <v>342707.3265851645</v>
+      </c>
+      <c r="I6" t="n">
         <v>342707.3265851644</v>
       </c>
-      <c r="I6" t="n">
-        <v>342707.3265851645</v>
-      </c>
       <c r="J6" t="n">
-        <v>197173.656650348</v>
+        <v>197173.6566503479</v>
       </c>
       <c r="K6" t="n">
-        <v>342707.3265851645</v>
+        <v>342707.3265851644</v>
       </c>
       <c r="L6" t="n">
-        <v>342707.3265851645</v>
+        <v>342707.3265851644</v>
       </c>
       <c r="M6" t="n">
-        <v>279833.3896197905</v>
+        <v>169576.8353795249</v>
       </c>
       <c r="N6" t="n">
         <v>342707.3265851644</v>
       </c>
       <c r="O6" t="n">
-        <v>262644.1003369576</v>
+        <v>337970.496634712</v>
       </c>
       <c r="P6" t="n">
-        <v>262644.1003369575</v>
+        <v>337970.4966347121</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>350.5048792244488</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1704573377096494</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27436,10 +27438,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.32812537571712</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.2347077808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11.66829397508712</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>336.5751994662119</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>20.53473220669994</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>112.7602435759714</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,19 +27858,19 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>341.1456313534021</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>169.2211944702622</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.13019988286506</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>182.6839781115126</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.642779091942156e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28755,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28807,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.779647469158316e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28998,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>167.4878420635545</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O2" t="n">
-        <v>415.010189472638</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>238.1458997847902</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>263.0232516395698</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.42597529544646</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>245.6677613624789</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>432.5378064344753</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>27.47295710290896</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>444.6304669057972</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099018</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
-        <v>27.47295710290918</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>294.9982839840495</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>106.3043917586369</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35896,16 +35898,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36045,13 +36047,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115393</v>
       </c>
       <c r="M19" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.304556440443</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36133,13 +36135,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>455.4718870526091</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>75.71808234769713</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36294,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968729</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36601,10 +36603,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>886.8993927061638</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>742.2666496462653</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37078,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>581.5177089712693</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>719.1172132785118</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>114.689578266591</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>408.2599907930289</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>64.69120429300314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>568.8891705336841</v>
       </c>
       <c r="M44" t="n">
-        <v>408.2599907930289</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>192.3068100561947</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2113537.547810255</v>
+        <v>2112819.557695397</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076074</v>
+        <v>698313.6830760735</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>156.4075162386438</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>49.79079256199707</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W4" t="n">
-        <v>218.775754413495</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -898,25 +898,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>409.2046460174066</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>155.8893233795038</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>144.0596678020102</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>259.7676441774644</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1147,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>238.381604373668</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>120.2281059240621</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,10 +1341,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>110.7442840088803</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>253.6542084583245</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>133.3064722245222</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>79.47996908723992</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>97.73220606373913</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2022,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>24.43802729683664</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686834</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>111.4895087206872</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>19.23718477902538</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2961,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.42910700403934</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>118.9693540944492</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>88.21646402816665</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9929615813389</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3246,7 +3246,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>151.7880808794981</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>122.9177036806385</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89949249262175</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>29.89949249262188</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>23.21064824982375</v>
       </c>
       <c r="S46" t="n">
-        <v>101.8032965813492</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1392.046023333888</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C2" t="n">
-        <v>965.1452933471885</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D2" t="n">
-        <v>541.8526725321888</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E2" t="n">
-        <v>115.8757326800463</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F2" t="n">
-        <v>94.79195490985063</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924753</v>
@@ -4336,22 +4336,22 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1123.5801824935</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>2217.231657670528</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.894387625418</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4488,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4512,19 +4512,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>2007.737591668685</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
         <v>1786.751981150003</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.989642055132</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.129316108836</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D5" t="n">
-        <v>1216.87709933424</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E5" t="n">
-        <v>1194.940563522502</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L6" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L6" t="n">
-        <v>838.3748437825398</v>
-      </c>
       <c r="M6" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505.7818726238037</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>333.8093095027197</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>333.8093095027197</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>333.8093095027197</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>333.8093095027197</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1531.252408707715</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1249.540941315744</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>974.6885374882565</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>732.1246409340616</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>505.7818726238037</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>1616.479056928882</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,19 +4807,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M8" t="n">
+        <v>1006.023847611597</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1006.023847611597</v>
+      </c>
+      <c r="O8" t="n">
         <v>1556.689382596036</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1556.689382596036</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>1633.583883184714</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.899316134963</v>
+        <v>1632.287017180008</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M9" t="n">
         <v>201.1892506764427</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>751.8547856608809</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1853.185855629757</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1105.325610318065</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>933.3530471969812</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>770.0362743237519</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>603.8280684766054</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>431.9662942511658</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>265.7093245453979</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V10" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1764.398243894584</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1521.834347340389</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1295.491579030131</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
         <v>2111.574999549778</v>
@@ -5041,25 +5041,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2033.988093917325</v>
+        <v>2474.172256154064</v>
       </c>
       <c r="N11" t="n">
-        <v>3010.239152404026</v>
+        <v>3450.423314640765</v>
       </c>
       <c r="O11" t="n">
-        <v>3855.383802554838</v>
+        <v>4295.567964791577</v>
       </c>
       <c r="P11" t="n">
-        <v>4563.663081712765</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
         <v>5003.847243949504</v>
@@ -5071,22 +5071,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.760972134626</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1083.489499143503</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C13" t="n">
-        <v>911.5169360224189</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D13" t="n">
-        <v>748.2001631491896</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E13" t="n">
-        <v>581.9919573020431</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
-        <v>410.1301830766035</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>243.8732133708357</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
         <v>100.0769448789901</v>
@@ -5229,22 +5229,22 @@
         <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292118</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292118</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1998.778504900147</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W13" t="n">
-        <v>1742.562132720021</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X13" t="n">
-        <v>1499.998236165826</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.655467855569</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="14">
@@ -5287,19 +5287,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5354,25 +5354,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>819.4496289866299</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.1560104286538</v>
+        <v>550.4987787389118</v>
       </c>
       <c r="C16" t="n">
-        <v>324.1560104286538</v>
+        <v>378.5262156178278</v>
       </c>
       <c r="D16" t="n">
-        <v>324.1560104286538</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="E16" t="n">
-        <v>324.1560104286538</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="F16" t="n">
-        <v>324.1560104286538</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="G16" t="n">
-        <v>324.1560104286538</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>180.3597419368082</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5481,7 +5481,7 @@
         <v>740.6647474509774</v>
       </c>
       <c r="Y16" t="n">
-        <v>514.3219791407195</v>
+        <v>740.6647474509774</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5515,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5542,25 +5542,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1012.46210461364</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5676,10 +5676,10 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358265</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302477</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M19" t="n">
         <v>1132.196759100498</v>
@@ -5697,28 +5697,28 @@
         <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.71574081896</v>
+        <v>2258.030864761549</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.71574081896</v>
+        <v>2087.895817280684</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.37639304486</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545164</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.480477153193</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325706</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.628073325706</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.628073325706</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5782,7 +5782,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5928,34 +5928,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3720.69762431963</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C25" t="n">
-        <v>3548.725061198546</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D25" t="n">
-        <v>3385.408288325316</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E25" t="n">
-        <v>3219.20008247817</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F25" t="n">
-        <v>3047.33830825273</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>4654.622661723635</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>4654.622661723635</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>4379.770257896148</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>4137.206361341953</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>3910.863593031695</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3931.435236455013</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.59856283363</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>869.6259997125455</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1785.357631525569</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1510.505227698082</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1267.941331143888</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1041.59856283363</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6472,13 +6472,13 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>703.5688235070123</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>531.5962603859283</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>368.279487512699</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>202.0712816655526</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>202.0712816655526</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
         <v>202.0712816655526</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2217.06186790609</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1973.72252013199</v>
       </c>
       <c r="U31" t="n">
-        <v>1919.205328302989</v>
+        <v>1693.538071632295</v>
       </c>
       <c r="V31" t="n">
-        <v>1637.493860911018</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="W31" t="n">
-        <v>1362.641457083531</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="X31" t="n">
-        <v>1120.077560529336</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.7347922190779</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>543.5554397491844</v>
+        <v>756.1902889499656</v>
       </c>
       <c r="C34" t="n">
-        <v>371.5828766281004</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D34" t="n">
-        <v>371.5828766281004</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E34" t="n">
-        <v>371.5828766281004</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X34" t="n">
-        <v>960.064176771508</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.72140846125</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="35">
@@ -6940,19 +6940,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>1019.226866224298</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>2001.004273426986</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="W37" t="n">
-        <v>1726.151869599499</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>1435.735603246621</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>1209.392834936363</v>
       </c>
     </row>
     <row r="38">
@@ -7180,19 +7180,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2856.963518260713</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U40" t="n">
-        <v>2235.67712750613</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.578858279949</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2076.678128293249</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.385507478249</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1227.408567626107</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>802.2843858155067</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>397.9453234049553</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
         <v>100.0769448789901</v>
@@ -7420,13 +7420,13 @@
         <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2474.172256154064</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>3450.423314640765</v>
       </c>
       <c r="O41" t="n">
-        <v>4570.892110530337</v>
+        <v>4295.567964791577</v>
       </c>
       <c r="P41" t="n">
         <v>5003.847243949504</v>
@@ -7438,25 +7438,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.365256022244</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4136.875841148494</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3740.484491448841</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3328.764492616588</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2923.427222571479</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>962.2593607269207</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>962.2593607269207</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>962.2593607269207</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>962.2593607269207</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>962.2593607269207</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1183.258067403227</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.285504282143</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="D43" t="n">
-        <v>847.9687314089136</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="E43" t="n">
-        <v>681.7605255617672</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="F43" t="n">
-        <v>509.8987513363276</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="G43" t="n">
-        <v>343.6417816305598</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7596,25 +7596,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>2280.489972292118</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V43" t="n">
-        <v>2117.183104807232</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W43" t="n">
-        <v>1842.330700979745</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X43" t="n">
-        <v>1599.766804425551</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.424036115293</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2533.780365848253</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2106.879635861554</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1683.587015046554</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1257.610075194411</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>832.4858933838116</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>428.1468309732602</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>130.278452447295</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958856</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>1178.188711671385</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7675,25 +7675,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>5003.847243949504</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4782.921672994137</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4524.566763590549</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>4167.077348716799</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>3770.685999017146</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>3358.966000184893</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.628730139784</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>819.4496289866299</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>939.6932306516574</v>
+        <v>537.9154932113001</v>
       </c>
       <c r="C46" t="n">
-        <v>767.7206675305733</v>
+        <v>537.9154932113001</v>
       </c>
       <c r="D46" t="n">
-        <v>604.403894657344</v>
+        <v>537.9154932113001</v>
       </c>
       <c r="E46" t="n">
-        <v>438.1956888101976</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="F46" t="n">
-        <v>266.333914584758</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G46" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H46" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2280.489972292118</v>
+        <v>2257.044873049872</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.658359583685</v>
+        <v>2086.909825569007</v>
       </c>
       <c r="T46" t="n">
-        <v>1934.319011809585</v>
+        <v>1843.570477794907</v>
       </c>
       <c r="U46" t="n">
-        <v>1654.134563309889</v>
+        <v>1563.386029295211</v>
       </c>
       <c r="V46" t="n">
-        <v>1372.423095917918</v>
+        <v>1281.67456190324</v>
       </c>
       <c r="W46" t="n">
-        <v>1372.423095917918</v>
+        <v>1006.822158075753</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.859199363723</v>
+        <v>764.2582615215581</v>
       </c>
       <c r="Y46" t="n">
-        <v>1129.859199363723</v>
+        <v>537.9154932113001</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>205.7998844961774</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>172.0949298956461</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>452.289812307084</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8297,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>268.1828480767085</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,13 +8455,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>84.50867025038121</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,7 +8470,7 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8534,22 +8534,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>407.4903506402422</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>480.7551415103952</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8768,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8777,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>108.6376593882833</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>218.8803944444793</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>749.810964578424</v>
+        <v>171.2323981147659</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>744.2217369616194</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>419.9591894246358</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>717.3655137896245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10837,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>773.7564706573085</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,7 +11077,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>474.9037794053499</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
@@ -11156,13 +11156,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>509.0028996591719</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>607.201212966307</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>194.3202945097473</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>68.10191868181126</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23469,16 +23469,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>18.44967133088764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>28.3771329199748</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>19.29091348988686</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>72.52063142613402</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>22.13019988286194</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189918815</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>53.104891288023</v>
+        <v>114.7184220815447</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.4464203654716</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>150.0045900020172</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>158.4132499202495</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>100.0478449967783</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>68.15019490184626</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>127.1062718385533</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>117.2205539080144</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>114.7184220815447</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.42412869296925</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>44.20464122293471</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.648410051341621</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>23.35757892987483</v>
       </c>
       <c r="S46" t="n">
-        <v>66.63040042470726</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>562295.7564569952</v>
+        <v>562295.7564569953</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>562295.7564569952</v>
+        <v>562295.756456995</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>562295.7564569953</v>
+        <v>562295.7564569952</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>562295.7564569952</v>
+        <v>562295.7564569953</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562295.7564569952</v>
+        <v>562295.756456995</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451393.0677086513</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451393.0677086515</v>
+      </c>
+      <c r="D2" t="n">
         <v>451393.0677086514</v>
       </c>
-      <c r="C2" t="n">
-        <v>451393.0677086513</v>
-      </c>
-      <c r="D2" t="n">
-        <v>451393.0677086513</v>
-      </c>
       <c r="E2" t="n">
+        <v>428912.7678245152</v>
+      </c>
+      <c r="F2" t="n">
         <v>428912.7678245151</v>
       </c>
-      <c r="F2" t="n">
-        <v>428912.7678245152</v>
-      </c>
       <c r="G2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="H2" t="n">
         <v>435573.5624315217</v>
@@ -26337,10 +26337,10 @@
         <v>435573.5624315215</v>
       </c>
       <c r="J2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="K2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="L2" t="n">
         <v>435573.5624315215</v>
@@ -26349,13 +26349,13 @@
         <v>435573.5624315215</v>
       </c>
       <c r="N2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="O2" t="n">
         <v>428912.7678245151</v>
       </c>
       <c r="P2" t="n">
-        <v>428912.7678245152</v>
+        <v>428912.7678245153</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690141</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26432,25 +26432,25 @@
         <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49411.67068747192</v>
+        <v>49411.67068747175</v>
       </c>
       <c r="C6" t="n">
-        <v>235816.404102209</v>
+        <v>235816.4041022092</v>
       </c>
       <c r="D6" t="n">
         <v>235816.4041022091</v>
       </c>
       <c r="E6" t="n">
-        <v>130538.209018151</v>
+        <v>130465.6919217506</v>
       </c>
       <c r="F6" t="n">
-        <v>337970.4966347121</v>
+        <v>337897.9795383114</v>
       </c>
       <c r="G6" t="n">
-        <v>335081.704501683</v>
+        <v>335030.6738394987</v>
       </c>
       <c r="H6" t="n">
-        <v>342707.3265851645</v>
+        <v>342656.2959229803</v>
       </c>
       <c r="I6" t="n">
-        <v>342707.3265851644</v>
+        <v>342656.2959229801</v>
       </c>
       <c r="J6" t="n">
-        <v>197173.6566503479</v>
+        <v>197122.6259881638</v>
       </c>
       <c r="K6" t="n">
-        <v>342707.3265851644</v>
+        <v>342656.2959229802</v>
       </c>
       <c r="L6" t="n">
-        <v>342707.3265851644</v>
+        <v>342656.2959229801</v>
       </c>
       <c r="M6" t="n">
-        <v>169576.8353795249</v>
+        <v>169525.8047173405</v>
       </c>
       <c r="N6" t="n">
-        <v>342707.3265851644</v>
+        <v>342656.2959229802</v>
       </c>
       <c r="O6" t="n">
-        <v>337970.496634712</v>
+        <v>337897.9795383115</v>
       </c>
       <c r="P6" t="n">
-        <v>337970.4966347121</v>
+        <v>337897.9795383117</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>266.2242064481891</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>350.5048792244488</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27432,22 +27432,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27596,10 +27596,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W4" t="n">
-        <v>53.32812537571712</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11.66829397508712</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>245.3945739651547</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20.53473220669994</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>162.8640785093684</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>169.2211944702622</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.13019988286506</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -28073,7 +28073,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.642779091942156e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>150.7519016821045</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>415.010189472638</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>245.6677613624789</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>158.2737632597931</v>
-      </c>
-      <c r="L9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>370.0590877408104</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>444.6304669057972</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>71.06229757805201</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>726.6390748562018</v>
+        <v>148.0605083925437</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937778</v>
       </c>
       <c r="L19" t="n">
-        <v>358.2720417115393</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
         <v>395.137166636617</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968738</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>706.646375151388</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>679.0534713570016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37557,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>736.3252077578767</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,7 +37797,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>437.3284175951186</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>487.2320584543432</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>568.8891705336841</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
